--- a/data/pca/factorExposure/factorExposure_2012-10-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001712730121251056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001943092682531508</v>
+      </c>
+      <c r="C2">
+        <v>0.02834711389327385</v>
+      </c>
+      <c r="D2">
+        <v>0.005593198298778281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-7.188052902436009e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006966985703115556</v>
+      </c>
+      <c r="C4">
+        <v>0.08284058727258323</v>
+      </c>
+      <c r="D4">
+        <v>0.07198977500661599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0001599001630433388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0138587782134287</v>
+      </c>
+      <c r="C6">
+        <v>0.1134675573046616</v>
+      </c>
+      <c r="D6">
+        <v>0.02567281285735349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0004005927852593273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004987317513519773</v>
+      </c>
+      <c r="C7">
+        <v>0.05799152158881158</v>
+      </c>
+      <c r="D7">
+        <v>0.03377476799574848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0005370220534770049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005963600411079513</v>
+      </c>
+      <c r="C8">
+        <v>0.03567714769913288</v>
+      </c>
+      <c r="D8">
+        <v>0.03959973004355339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002336575661993119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005211213475195821</v>
+      </c>
+      <c r="C9">
+        <v>0.07052441615978013</v>
+      </c>
+      <c r="D9">
+        <v>0.07627231703154283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002366829046384647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005900974828781606</v>
+      </c>
+      <c r="C10">
+        <v>0.05657428746605916</v>
+      </c>
+      <c r="D10">
+        <v>-0.1952334554449927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003065894858040308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005586747902383559</v>
+      </c>
+      <c r="C11">
+        <v>0.07936965356946432</v>
+      </c>
+      <c r="D11">
+        <v>0.06472964181866993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001487711023124286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004088595055532963</v>
+      </c>
+      <c r="C12">
+        <v>0.06445473909383054</v>
+      </c>
+      <c r="D12">
+        <v>0.0516373143493623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003018291777509299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008388666777597803</v>
+      </c>
+      <c r="C13">
+        <v>0.06700233914697</v>
+      </c>
+      <c r="D13">
+        <v>0.06278350675828197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001775207513849501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007702440979973754</v>
+      </c>
+      <c r="C14">
+        <v>0.04242637525384218</v>
+      </c>
+      <c r="D14">
+        <v>0.01107578219399419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0003198976792098001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005779006704066284</v>
+      </c>
+      <c r="C15">
+        <v>0.0406424963981569</v>
+      </c>
+      <c r="D15">
+        <v>0.02868502587285167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0006675688994612006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004979175403743997</v>
+      </c>
+      <c r="C16">
+        <v>0.06407208625744282</v>
+      </c>
+      <c r="D16">
+        <v>0.05784338876472628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0007266182439401532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008945149563436514</v>
+      </c>
+      <c r="C20">
+        <v>0.06360328525072385</v>
+      </c>
+      <c r="D20">
+        <v>0.05018879659597547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006262906770428456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009520788216898645</v>
+      </c>
+      <c r="C21">
+        <v>0.01930344563284406</v>
+      </c>
+      <c r="D21">
+        <v>0.0420364114453256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02289106496442431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006698399125314017</v>
+      </c>
+      <c r="C22">
+        <v>0.08678248337450781</v>
+      </c>
+      <c r="D22">
+        <v>0.1233565427381966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02266639146419649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00650199729559985</v>
+      </c>
+      <c r="C23">
+        <v>0.08722752970051866</v>
+      </c>
+      <c r="D23">
+        <v>0.1242444708632261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002478206195022692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005552645495882612</v>
+      </c>
+      <c r="C24">
+        <v>0.07580572886703915</v>
+      </c>
+      <c r="D24">
+        <v>0.06865057605819164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004294839527186754</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003104315991317558</v>
+      </c>
+      <c r="C25">
+        <v>0.07806049263005996</v>
+      </c>
+      <c r="D25">
+        <v>0.06666823988387846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003360107567075039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003606839456906763</v>
+      </c>
+      <c r="C26">
+        <v>0.03853079318777575</v>
+      </c>
+      <c r="D26">
+        <v>0.0257360789569713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007342354804103452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001355418514997849</v>
+      </c>
+      <c r="C28">
+        <v>0.1045544800750102</v>
+      </c>
+      <c r="D28">
+        <v>-0.3226956586552436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009107306620659543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002617241189258851</v>
+      </c>
+      <c r="C29">
+        <v>0.0482223812767286</v>
+      </c>
+      <c r="D29">
+        <v>0.009996372225638653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005557796490762355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009584275085897133</v>
+      </c>
+      <c r="C30">
+        <v>0.1415674946801969</v>
+      </c>
+      <c r="D30">
+        <v>0.1082938272790827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001358799936132858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006300144175474066</v>
+      </c>
+      <c r="C31">
+        <v>0.04362737215000203</v>
+      </c>
+      <c r="D31">
+        <v>0.03262257359014703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001972630764751296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003459276331464588</v>
+      </c>
+      <c r="C32">
+        <v>0.03933930397217748</v>
+      </c>
+      <c r="D32">
+        <v>0.02518009210660083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001561147808784671</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008955884544505688</v>
+      </c>
+      <c r="C33">
+        <v>0.08806383603975766</v>
+      </c>
+      <c r="D33">
+        <v>0.06611303994216196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003482421263764335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004157905734359528</v>
+      </c>
+      <c r="C34">
+        <v>0.05772655710603227</v>
+      </c>
+      <c r="D34">
+        <v>0.05883815591390741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.000823975430298951</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005217647239114461</v>
+      </c>
+      <c r="C35">
+        <v>0.04048147320411349</v>
+      </c>
+      <c r="D35">
+        <v>0.02124503766677696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005226519018538151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001466866182953615</v>
+      </c>
+      <c r="C36">
+        <v>0.02426141931735444</v>
+      </c>
+      <c r="D36">
+        <v>0.02601939302224286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0001957034441703381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009364208716391643</v>
+      </c>
+      <c r="C38">
+        <v>0.03790848349876835</v>
+      </c>
+      <c r="D38">
+        <v>0.01438125154127534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01333682185930165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001556064272269527</v>
+      </c>
+      <c r="C39">
+        <v>0.1132654315443784</v>
+      </c>
+      <c r="D39">
+        <v>0.07749989668575888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008141398922690035</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003584850465464662</v>
+      </c>
+      <c r="C40">
+        <v>0.08990578863235561</v>
+      </c>
+      <c r="D40">
+        <v>0.02122545107882204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007471879923160591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00724836920792439</v>
+      </c>
+      <c r="C41">
+        <v>0.03884348495168875</v>
+      </c>
+      <c r="D41">
+        <v>0.03984391637281039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002519670922976337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003864789675599408</v>
+      </c>
+      <c r="C43">
+        <v>0.05302924783186663</v>
+      </c>
+      <c r="D43">
+        <v>0.02803060971174655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01385408961415037</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002724063030216415</v>
+      </c>
+      <c r="C44">
+        <v>0.1038109748503888</v>
+      </c>
+      <c r="D44">
+        <v>0.07068752066646211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0007168297527039774</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001732499501886133</v>
+      </c>
+      <c r="C46">
+        <v>0.03256081934870824</v>
+      </c>
+      <c r="D46">
+        <v>0.03445455683607607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.00147431735249794</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002097341795475795</v>
+      </c>
+      <c r="C47">
+        <v>0.03494636244564791</v>
+      </c>
+      <c r="D47">
+        <v>0.02312205080923176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003175555321732042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006544250970814795</v>
+      </c>
+      <c r="C48">
+        <v>0.02985187429590741</v>
+      </c>
+      <c r="D48">
+        <v>0.0371307535348543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.006750032899390551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01758160250849643</v>
+      </c>
+      <c r="C49">
+        <v>0.1897793229048108</v>
+      </c>
+      <c r="D49">
+        <v>0.007502211050977908</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004218986187987423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003539077823293412</v>
+      </c>
+      <c r="C50">
+        <v>0.04245966252480977</v>
+      </c>
+      <c r="D50">
+        <v>0.03930356138237195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0002374045203306056</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004962413850341552</v>
+      </c>
+      <c r="C51">
+        <v>0.02607162037497455</v>
+      </c>
+      <c r="D51">
+        <v>0.0221187679476147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002504013445162915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02125069775848008</v>
+      </c>
+      <c r="C53">
+        <v>0.1716706874767726</v>
+      </c>
+      <c r="D53">
+        <v>0.0227047760460303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002031040106070945</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00902344160016751</v>
+      </c>
+      <c r="C54">
+        <v>0.05445508960403205</v>
+      </c>
+      <c r="D54">
+        <v>0.04383101353533479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003097089557841231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009495039302349868</v>
+      </c>
+      <c r="C55">
+        <v>0.1074635419816961</v>
+      </c>
+      <c r="D55">
+        <v>0.04118422871020832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004619924516957647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02012044386686515</v>
+      </c>
+      <c r="C56">
+        <v>0.1759173341551456</v>
+      </c>
+      <c r="D56">
+        <v>0.01552306331202883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003427691363094028</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01899192007948236</v>
+      </c>
+      <c r="C58">
+        <v>0.1040539978304352</v>
+      </c>
+      <c r="D58">
+        <v>0.07362056547876114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006512202087399788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01068010378417356</v>
+      </c>
+      <c r="C59">
+        <v>0.1690017970561817</v>
+      </c>
+      <c r="D59">
+        <v>-0.3404382320840222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.001809100544020488</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02472913375927816</v>
+      </c>
+      <c r="C60">
+        <v>0.2252697236328279</v>
+      </c>
+      <c r="D60">
+        <v>0.02037088864423773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01213521873244324</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001938660404408485</v>
+      </c>
+      <c r="C61">
+        <v>0.09443017428992456</v>
+      </c>
+      <c r="D61">
+        <v>0.05813643849915507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1548816008557297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1492166360734509</v>
+      </c>
+      <c r="C62">
+        <v>0.09660621853514012</v>
+      </c>
+      <c r="D62">
+        <v>0.02654730221807275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0009621128676787687</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00644145387111966</v>
+      </c>
+      <c r="C63">
+        <v>0.0533391899434438</v>
+      </c>
+      <c r="D63">
+        <v>0.03226805857507471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002416635860726395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01575314159074078</v>
+      </c>
+      <c r="C64">
+        <v>0.1048742035851584</v>
+      </c>
+      <c r="D64">
+        <v>0.05719498564678791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003242320002554873</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01772195745164475</v>
+      </c>
+      <c r="C65">
+        <v>0.1216001625779754</v>
+      </c>
+      <c r="D65">
+        <v>0.02751930952445678</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003540351073639336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01334524120668528</v>
+      </c>
+      <c r="C66">
+        <v>0.161628416244159</v>
+      </c>
+      <c r="D66">
+        <v>0.1080291190311481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00259336185970953</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01552670964056834</v>
+      </c>
+      <c r="C67">
+        <v>0.06983008798353871</v>
+      </c>
+      <c r="D67">
+        <v>0.02597888346227698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005492851918477638</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001401460067136079</v>
+      </c>
+      <c r="C68">
+        <v>0.0874921434154069</v>
+      </c>
+      <c r="D68">
+        <v>-0.2564873970422444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001149861303752185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006323871686839021</v>
+      </c>
+      <c r="C69">
+        <v>0.05254028073665026</v>
+      </c>
+      <c r="D69">
+        <v>0.03770230690509097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0007343781060316749</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001984693653560562</v>
+      </c>
+      <c r="C70">
+        <v>0.005838158571987623</v>
+      </c>
+      <c r="D70">
+        <v>0.0006964998687030189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0008132611679539107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006184217634713439</v>
+      </c>
+      <c r="C71">
+        <v>0.0921724192339226</v>
+      </c>
+      <c r="D71">
+        <v>-0.3010768818866367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003482895367883883</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01642640627460395</v>
+      </c>
+      <c r="C72">
+        <v>0.1563889275549585</v>
+      </c>
+      <c r="D72">
+        <v>0.01303919895333347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.005541413447021229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03145384219915071</v>
+      </c>
+      <c r="C73">
+        <v>0.2820532644689777</v>
+      </c>
+      <c r="D73">
+        <v>0.05631838685739435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005453257506202182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00197665898215576</v>
+      </c>
+      <c r="C74">
+        <v>0.1017413168403246</v>
+      </c>
+      <c r="D74">
+        <v>0.03767380789846722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003425192910077888</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0106351484460637</v>
+      </c>
+      <c r="C75">
+        <v>0.1224308906625065</v>
+      </c>
+      <c r="D75">
+        <v>0.02351269909137766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008747890549780445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02221048388009671</v>
+      </c>
+      <c r="C76">
+        <v>0.1470927315155981</v>
+      </c>
+      <c r="D76">
+        <v>0.05963965776284075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0005614403590628983</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02151000885509233</v>
+      </c>
+      <c r="C77">
+        <v>0.1125868781450911</v>
+      </c>
+      <c r="D77">
+        <v>0.050815965692007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001475136239887557</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01497060497749087</v>
+      </c>
+      <c r="C78">
+        <v>0.09632356062990194</v>
+      </c>
+      <c r="D78">
+        <v>0.0796346940387502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02265179232547997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03830285373838044</v>
+      </c>
+      <c r="C79">
+        <v>0.1564704807332405</v>
+      </c>
+      <c r="D79">
+        <v>0.03244375170838808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006888387378240888</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01014121627716386</v>
+      </c>
+      <c r="C80">
+        <v>0.03773043597595321</v>
+      </c>
+      <c r="D80">
+        <v>0.03134227256907669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001252635523603135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01572875936389712</v>
+      </c>
+      <c r="C81">
+        <v>0.1300071809955877</v>
+      </c>
+      <c r="D81">
+        <v>0.03776401723481018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005119398273498863</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01976821034224237</v>
+      </c>
+      <c r="C82">
+        <v>0.1384997881871936</v>
+      </c>
+      <c r="D82">
+        <v>0.03891948674763553</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005138423789429587</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01087760810851985</v>
+      </c>
+      <c r="C83">
+        <v>0.0606020150597282</v>
+      </c>
+      <c r="D83">
+        <v>0.04738230066140657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01090871494444559</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01185296348739261</v>
+      </c>
+      <c r="C84">
+        <v>0.03820659214029026</v>
+      </c>
+      <c r="D84">
+        <v>-0.002723522992834639</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0142863602991152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02895126912583561</v>
+      </c>
+      <c r="C85">
+        <v>0.1244696331746531</v>
+      </c>
+      <c r="D85">
+        <v>0.03984701252310123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002976433592230135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004280730251397864</v>
+      </c>
+      <c r="C86">
+        <v>0.05057897402549839</v>
+      </c>
+      <c r="D86">
+        <v>0.02695295236311598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002575124153599792</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01068462046372379</v>
+      </c>
+      <c r="C87">
+        <v>0.1274283102566396</v>
+      </c>
+      <c r="D87">
+        <v>0.07891683017917875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01073881184325127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003018977622455041</v>
+      </c>
+      <c r="C88">
+        <v>0.06338545562685929</v>
+      </c>
+      <c r="D88">
+        <v>0.02688479804941019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01127089362394861</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001382753412559105</v>
+      </c>
+      <c r="C89">
+        <v>0.1399818190079058</v>
+      </c>
+      <c r="D89">
+        <v>-0.3184875036467851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00323304663390277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007202051185396005</v>
+      </c>
+      <c r="C90">
+        <v>0.1213908862886837</v>
+      </c>
+      <c r="D90">
+        <v>-0.313886207856483</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0004086166311627781</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01030887587644064</v>
+      </c>
+      <c r="C91">
+        <v>0.09945543001786153</v>
+      </c>
+      <c r="D91">
+        <v>0.02487634520475259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008419462396785969</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009577316734932621</v>
+      </c>
+      <c r="C92">
+        <v>0.1348439462731221</v>
+      </c>
+      <c r="D92">
+        <v>-0.3217417921792488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002488311290546512</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004746698997530262</v>
+      </c>
+      <c r="C93">
+        <v>0.1057505053932637</v>
+      </c>
+      <c r="D93">
+        <v>-0.2987203830356338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003418598529192131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02139771210316856</v>
+      </c>
+      <c r="C94">
+        <v>0.1424174228657972</v>
+      </c>
+      <c r="D94">
+        <v>0.05295250179003849</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001780675691525817</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01649083173035133</v>
+      </c>
+      <c r="C95">
+        <v>0.1219636050641422</v>
+      </c>
+      <c r="D95">
+        <v>0.06489264237641924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.007302104623096207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03719606615486277</v>
+      </c>
+      <c r="C97">
+        <v>0.2250097786594709</v>
+      </c>
+      <c r="D97">
+        <v>0.001704237942877056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00434301774099325</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03759409452417033</v>
+      </c>
+      <c r="C98">
+        <v>0.2565460126537149</v>
+      </c>
+      <c r="D98">
+        <v>0.03236183509486091</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860903414719898</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813666316510388</v>
+      </c>
+      <c r="C99">
+        <v>-0.1195414944406065</v>
+      </c>
+      <c r="D99">
+        <v>-0.02323760247927422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008398656163533625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002660297816021846</v>
+      </c>
+      <c r="C101">
+        <v>0.04835417252648328</v>
+      </c>
+      <c r="D101">
+        <v>0.01039224034851191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
